--- a/Tamarin Group Monitor/PCB Files/TGM Rev1 BOM.xlsx
+++ b/Tamarin Group Monitor/PCB Files/TGM Rev1 BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Storage\Documents\GitHub\Trak-TFRC-System\Tamarin Group Monitor\PCB Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62090BDE-33C0-4163-A516-6E5C0BDC927F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C845A35-63A5-4481-95ED-71D7FCA97629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5ABB82E-A1AF-4B43-86DC-B16426612706}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="172">
   <si>
     <t>Qty</t>
   </si>
@@ -518,6 +518,36 @@
   </si>
   <si>
     <t>ECAD Version- v21 TGM Rev1</t>
+  </si>
+  <si>
+    <t>https://www.sunrom.com/p/8p-metal-mini-round-shell-aviation-male-and-female-circular-connectors-gx16-16mm</t>
+  </si>
+  <si>
+    <t>Roundshell 16mm pair</t>
+  </si>
+  <si>
+    <t>https://www.sunrom.com/p/pg7-white-nylon-cable-gland-for-cable-dia-3-6mm</t>
+  </si>
+  <si>
+    <t>https://www.sunrom.com/p/pg11-white-nylon-cable-gland-for-cable-dia-7-9mm</t>
+  </si>
+  <si>
+    <t>Cable Glands for the Load cells</t>
+  </si>
+  <si>
+    <t>Cable Glands for RFID wires</t>
+  </si>
+  <si>
+    <t>https://www.sunrom.com/p/slide-switch-1p2t-high-current-straight</t>
+  </si>
+  <si>
+    <t>Slide switch</t>
+  </si>
+  <si>
+    <t>Required for the case</t>
+  </si>
+  <si>
+    <t>The device should use the right angle connectors,but in case they don't fit these are for backup.</t>
   </si>
 </sst>
 </file>
@@ -925,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47106DB8-1B6E-4E8E-BD61-1C857F6A74E1}">
-  <dimension ref="A1:AM58"/>
+  <dimension ref="A1:AM62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1069,7 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A31" si="0">B4*$B$1</f>
+        <f t="shared" ref="A4:A30" si="0">B4*$B$1</f>
         <v>10</v>
       </c>
       <c r="B4" s="3">
@@ -1094,24 +1124,26 @@
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1146,25 +1178,25 @@
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1200,25 +1232,25 @@
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1254,25 +1286,25 @@
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1308,25 +1340,23 @@
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1362,23 +1392,25 @@
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H10" s="3" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1414,25 +1446,25 @@
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1468,25 +1500,25 @@
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1522,25 +1554,25 @@
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1576,25 +1608,25 @@
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>159</v>
+        <v>18</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1630,25 +1662,25 @@
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1690,19 +1722,19 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1744,19 +1776,19 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1798,19 +1830,19 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1852,19 +1884,17 @@
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>110</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -1906,17 +1936,19 @@
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="H20" s="3" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1958,19 +1990,17 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>114</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -2012,18 +2042,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="H22" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -2058,19 +2086,19 @@
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F23" s="3"/>
       <c r="H23" s="3"/>
@@ -2108,22 +2136,26 @@
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="H24" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -2164,19 +2196,19 @@
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -2218,19 +2250,17 @@
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F26" s="3"/>
       <c r="H26" s="3" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -2266,23 +2296,25 @@
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H27" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -2324,19 +2356,19 @@
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -2372,32 +2404,31 @@
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
@@ -2432,101 +2463,100 @@
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F30" s="3"/>
       <c r="H30" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
-      <c r="AK30" s="3"/>
-      <c r="AL30" s="3"/>
-      <c r="AM30" s="3"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f>B31*$B$1</f>
         <v>10</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="H31" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="12"/>
-      <c r="AI31" s="12"/>
-      <c r="AJ31" s="12"/>
-      <c r="AK31" s="12"/>
-      <c r="AL31" s="12"/>
-      <c r="AM31" s="12"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
@@ -2535,21 +2565,21 @@
       <c r="F32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="11"/>
       <c r="E34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="13" t="s">
@@ -2560,7 +2590,7 @@
       <c r="F35" s="5"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f>B36*$B$1</f>
         <v>10</v>
@@ -2578,7 +2608,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f>B37*$B$1</f>
         <v>10</v>
@@ -2594,7 +2624,7 @@
       <c r="F37" s="5"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2603,66 +2633,74 @@
       <c r="F38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <f t="shared" ref="A40:A43" si="1">B40*$B$1</f>
-        <v>10</v>
+        <f>B40*$B$1</f>
+        <v>20</v>
       </c>
       <c r="B40" s="4">
-        <v>1</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>57</v>
+        <v>2</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="H40" s="9"/>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="H40" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A41:A43" si="1">B41*$B$1</f>
         <v>20</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="8">
         <v>2</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>58</v>
+      <c r="C41" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="H41" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B42" s="4">
-        <v>1</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>59</v>
+        <v>20</v>
+      </c>
+      <c r="B42" s="8">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="H42" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2670,256 +2708,116 @@
       <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="5"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C46" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" ref="A47:A58" si="2">B47*$B$1</f>
+      <c r="C43" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" ref="A44:A47" si="2">B44*$B$1</f>
+        <v>10</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B45" s="4">
         <v>2</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
-      <c r="AE47" s="3"/>
-      <c r="AF47" s="3"/>
-      <c r="AG47" s="3"/>
-      <c r="AH47" s="3"/>
-      <c r="AI47" s="3"/>
-      <c r="AJ47" s="3"/>
-      <c r="AK47" s="3"/>
-      <c r="AL47" s="3"/>
-      <c r="AM47" s="3"/>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="C45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B46" s="4">
         <v>1</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
-      <c r="AG48" s="3"/>
-      <c r="AH48" s="3"/>
-      <c r="AI48" s="3"/>
-      <c r="AJ48" s="3"/>
-      <c r="AK48" s="3"/>
-      <c r="AL48" s="3"/>
-      <c r="AM48" s="3"/>
-    </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="C46" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="B49" s="3">
-        <v>2</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="3"/>
-      <c r="AF49" s="3"/>
-      <c r="AG49" s="3"/>
-      <c r="AH49" s="3"/>
-      <c r="AI49" s="3"/>
-      <c r="AJ49" s="3"/>
-      <c r="AK49" s="3"/>
-      <c r="AL49" s="3"/>
-      <c r="AM49" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B47" s="8">
+        <v>1</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="5"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="B50" s="3">
-        <v>8</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
-      <c r="AD50" s="3"/>
-      <c r="AE50" s="3"/>
-      <c r="AF50" s="3"/>
-      <c r="AG50" s="3"/>
-      <c r="AH50" s="3"/>
-      <c r="AI50" s="3"/>
-      <c r="AJ50" s="3"/>
-      <c r="AK50" s="3"/>
-      <c r="AL50" s="3"/>
-      <c r="AM50" s="3"/>
+      <c r="C50" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A51:A62" si="3">B51*$B$1</f>
         <v>20</v>
       </c>
       <c r="B51" s="3">
         <v>2</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F51" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -2955,23 +2853,23 @@
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="B52" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -3008,23 +2906,23 @@
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="B53" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -3061,20 +2959,22 @@
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="B54" s="3">
-        <v>1</v>
-      </c>
-      <c r="C54" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="D54" s="3" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G54" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="F54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -3110,30 +3010,29 @@
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="B55" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>93</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="F55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
@@ -3162,23 +3061,23 @@
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="B56" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -3186,6 +3085,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
@@ -3214,28 +3114,31 @@
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="2"/>
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="B57" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F57" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
@@ -3264,28 +3167,27 @@
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="B58" s="3">
-        <v>2</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>144</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F58" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
@@ -3312,13 +3214,217 @@
       <c r="AL58" s="3"/>
       <c r="AM58" s="3"/>
     </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="3"/>
+      <c r="AH59" s="3"/>
+      <c r="AI59" s="3"/>
+      <c r="AJ59" s="3"/>
+      <c r="AK59" s="3"/>
+      <c r="AL59" s="3"/>
+      <c r="AM59" s="3"/>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
+      <c r="AF60" s="3"/>
+      <c r="AG60" s="3"/>
+      <c r="AH60" s="3"/>
+      <c r="AI60" s="3"/>
+      <c r="AJ60" s="3"/>
+      <c r="AK60" s="3"/>
+      <c r="AL60" s="3"/>
+      <c r="AM60" s="3"/>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="B61" s="3">
+        <v>9</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="3"/>
+      <c r="AB61" s="3"/>
+      <c r="AC61" s="3"/>
+      <c r="AD61" s="3"/>
+      <c r="AE61" s="3"/>
+      <c r="AF61" s="3"/>
+      <c r="AG61" s="3"/>
+      <c r="AH61" s="3"/>
+      <c r="AI61" s="3"/>
+      <c r="AJ61" s="3"/>
+      <c r="AK61" s="3"/>
+      <c r="AL61" s="3"/>
+      <c r="AM61" s="3"/>
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="3"/>
+      <c r="AD62" s="3"/>
+      <c r="AE62" s="3"/>
+      <c r="AF62" s="3"/>
+      <c r="AG62" s="3"/>
+      <c r="AH62" s="3"/>
+      <c r="AI62" s="3"/>
+      <c r="AJ62" s="3"/>
+      <c r="AK62" s="3"/>
+      <c r="AL62" s="3"/>
+      <c r="AM62" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C37" r:id="rId1" xr:uid="{D6F2ECEF-590F-48E9-8EB8-35D5F53D7E8C}"/>
     <hyperlink ref="C36" r:id="rId2" xr:uid="{A6C34D53-A2E0-4747-A04F-7B7984A43EC7}"/>
-    <hyperlink ref="C42" r:id="rId3" xr:uid="{E6A3B0D8-88A5-4C5D-B93B-2C6A998B0887}"/>
-    <hyperlink ref="C41" r:id="rId4" xr:uid="{D553B020-4A28-4132-9C24-BB15A690582C}"/>
-    <hyperlink ref="C40" r:id="rId5" xr:uid="{05C5DF2F-E63D-4B94-80E8-83AAAD9A1FE3}"/>
+    <hyperlink ref="C46" r:id="rId3" xr:uid="{E6A3B0D8-88A5-4C5D-B93B-2C6A998B0887}"/>
+    <hyperlink ref="C45" r:id="rId4" xr:uid="{D553B020-4A28-4132-9C24-BB15A690582C}"/>
+    <hyperlink ref="C44" r:id="rId5" xr:uid="{05C5DF2F-E63D-4B94-80E8-83AAAD9A1FE3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>

--- a/Tamarin Group Monitor/PCB Files/TGM Rev1 BOM.xlsx
+++ b/Tamarin Group Monitor/PCB Files/TGM Rev1 BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Storage\Documents\GitHub\Trak-TFRC-System\Tamarin Group Monitor\PCB Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C845A35-63A5-4481-95ED-71D7FCA97629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCF34BC-DD7C-4197-884A-39AF14D09B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5ABB82E-A1AF-4B43-86DC-B16426612706}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="174">
   <si>
     <t>Qty</t>
   </si>
@@ -548,6 +548,12 @@
   </si>
   <si>
     <t>The device should use the right angle connectors,but in case they don't fit these are for backup.</t>
+  </si>
+  <si>
+    <t>https://robu.in/product/12v-8-x-aa-battery-clip-slot-holder-stack-box-case/</t>
+  </si>
+  <si>
+    <t>Battery Holder</t>
   </si>
 </sst>
 </file>
@@ -958,7 +964,7 @@
   <dimension ref="A1:AM62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2559,11 +2565,21 @@
       <c r="AM31" s="3"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="A32">
+        <f>B32*$B$1</f>
+        <v>10</v>
+      </c>
+      <c r="B32" s="10">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
